--- a/results/mp/tinybert/corona/confidence/84/0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,27 +40,15 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
+    <t>crude</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,130 +58,145 @@
     <t>low</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
     <t>!</t>
   </si>
   <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>19</t>
@@ -202,7 +205,16 @@
     <t>.</t>
   </si>
   <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>the</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>to</t>
@@ -563,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -632,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -650,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -674,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -682,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8823529411764706</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -700,31 +712,31 @@
         <v>0</v>
       </c>
       <c r="H4">
+        <v>14</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L4">
+        <v>31</v>
+      </c>
+      <c r="M4">
+        <v>31</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4">
         <v>2</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L4">
-        <v>23</v>
-      </c>
-      <c r="M4">
-        <v>23</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -732,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.84</v>
+        <v>0.6095890410958904</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -750,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -774,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -782,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7207792207792207</v>
+        <v>0.2034883720930233</v>
       </c>
       <c r="C6">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D6">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -800,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>43</v>
+        <v>411</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -824,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -832,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6666666666666666</v>
+        <v>0.201058201058201</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -850,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>151</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="M7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -874,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -882,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.1476510067114094</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -900,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L8">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="M8">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -924,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -932,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3928571428571428</v>
+        <v>0.07936507936507936</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -950,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>232</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8823529411764706</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="M9">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -974,95 +986,47 @@
         <v>0</v>
       </c>
       <c r="Q9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3776824034334764</v>
-      </c>
-      <c r="C10">
-        <v>88</v>
-      </c>
-      <c r="D10">
-        <v>88</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>145</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>0.875</v>
-      </c>
-      <c r="L10">
-        <v>14</v>
-      </c>
-      <c r="M10">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.2441860465116279</v>
-      </c>
-      <c r="C11">
-        <v>21</v>
-      </c>
-      <c r="D11">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>65</v>
-      </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8620689655172413</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M11">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1078,167 +1042,95 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.8205128205128205</v>
+      </c>
+      <c r="L12">
+        <v>32</v>
+      </c>
+      <c r="M12">
+        <v>32</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0.8103448275862069</v>
+      </c>
+      <c r="L13">
+        <v>47</v>
+      </c>
+      <c r="M13">
+        <v>47</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L14">
+        <v>65</v>
+      </c>
+      <c r="M14">
+        <v>65</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1875</v>
-      </c>
-      <c r="C12">
-        <v>15</v>
-      </c>
-      <c r="D12">
-        <v>15</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>65</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8571428571428571</v>
-      </c>
-      <c r="L12">
-        <v>48</v>
-      </c>
-      <c r="M12">
-        <v>48</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.1185185185185185</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
-        <v>16</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>119</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L13">
-        <v>45</v>
-      </c>
-      <c r="M13">
-        <v>45</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>98</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L14">
-        <v>10</v>
-      </c>
-      <c r="M14">
-        <v>10</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.803921568627451</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L15">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="M15">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1250,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7890625</v>
       </c>
       <c r="L16">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1276,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1302,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7435897435897436</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1328,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1354,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.7058823529411765</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1380,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6986301369863014</v>
+        <v>0.6886792452830188</v>
       </c>
       <c r="L21">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="M21">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1406,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6923076923076923</v>
+        <v>0.6875</v>
       </c>
       <c r="L22">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="M22">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1432,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="L23">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1458,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1484,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6470588235294118</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L25">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M25">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1510,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.64</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1536,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>9</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.625</v>
+        <v>0.574468085106383</v>
       </c>
       <c r="L27">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1562,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5909090909090909</v>
+        <v>0.5625</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1588,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5789473684210527</v>
+        <v>0.5352480417754569</v>
       </c>
       <c r="L29">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="M29">
-        <v>11</v>
+        <v>205</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1614,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5539906103286385</v>
+        <v>0.4888888888888889</v>
       </c>
       <c r="L30">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="M30">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1640,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>95</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5348837209302325</v>
+        <v>0.488235294117647</v>
       </c>
       <c r="L31">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="M31">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1666,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>60</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5333333333333333</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1692,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.4383561643835616</v>
       </c>
       <c r="L33">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1718,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>72</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.4285714285714285</v>
+        <v>0.4338983050847458</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1744,47 +1636,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K35">
+        <v>0.4044943820224719</v>
+      </c>
+      <c r="L35">
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>53</v>
-      </c>
-      <c r="K35">
-        <v>0.4285714285714285</v>
-      </c>
-      <c r="L35">
-        <v>12</v>
-      </c>
-      <c r="M35">
-        <v>12</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>16</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.4130434782608696</v>
+        <v>0.3974358974358974</v>
       </c>
       <c r="L36">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M36">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1796,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.2972972972972973</v>
+        <v>0.34375</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1822,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.2631578947368421</v>
+        <v>0.3305439330543933</v>
       </c>
       <c r="L38">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1848,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>28</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.02977667493796526</v>
+        <v>0.3</v>
       </c>
       <c r="L39">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M39">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1874,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>391</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.02850877192982456</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L40">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M40">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1900,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>443</v>
+        <v>399</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.02682926829268293</v>
+        <v>0.0302013422818792</v>
       </c>
       <c r="L41">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1926,111 +1818,345 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>399</v>
+        <v>867</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K42">
-        <v>0.01248884924174844</v>
+        <v>0.02833333333333333</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="N42">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1107</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K43">
-        <v>0.007828810020876827</v>
+        <v>0.02735562310030395</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>1901</v>
+        <v>960</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K44">
-        <v>0.007042253521126761</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L44">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M44">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N44">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>1974</v>
+        <v>881</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K45">
+        <v>0.01721556886227545</v>
+      </c>
+      <c r="L45">
+        <v>46</v>
+      </c>
+      <c r="M45">
+        <v>47</v>
+      </c>
+      <c r="N45">
+        <v>0.98</v>
+      </c>
+      <c r="O45">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P45" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="46" spans="10:17">
+      <c r="J46" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K46">
+        <v>0.0157035175879397</v>
+      </c>
+      <c r="L46">
+        <v>25</v>
+      </c>
+      <c r="M46">
+        <v>27</v>
+      </c>
+      <c r="N46">
+        <v>0.93</v>
+      </c>
+      <c r="O46">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K47">
+        <v>0.01351904956984842</v>
+      </c>
+      <c r="L47">
+        <v>33</v>
+      </c>
+      <c r="M47">
+        <v>37</v>
+      </c>
+      <c r="N47">
+        <v>0.89</v>
+      </c>
+      <c r="O47">
+        <v>0.11</v>
+      </c>
+      <c r="P47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K48">
+        <v>0.01169317118802619</v>
+      </c>
+      <c r="L48">
+        <v>25</v>
+      </c>
+      <c r="M48">
+        <v>30</v>
+      </c>
+      <c r="N48">
+        <v>0.83</v>
+      </c>
+      <c r="O48">
+        <v>0.17</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K49">
+        <v>0.01101321585903084</v>
+      </c>
+      <c r="L49">
+        <v>55</v>
+      </c>
+      <c r="M49">
+        <v>57</v>
+      </c>
+      <c r="N49">
+        <v>0.96</v>
+      </c>
+      <c r="O49">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>4939</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K45">
-        <v>0.006300114547537228</v>
-      </c>
-      <c r="L45">
-        <v>11</v>
-      </c>
-      <c r="M45">
-        <v>11</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>1735</v>
+      <c r="K50">
+        <v>0.009255363904080775</v>
+      </c>
+      <c r="L50">
+        <v>22</v>
+      </c>
+      <c r="M50">
+        <v>24</v>
+      </c>
+      <c r="N50">
+        <v>0.92</v>
+      </c>
+      <c r="O50">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K51">
+        <v>0.008698453608247423</v>
+      </c>
+      <c r="L51">
+        <v>27</v>
+      </c>
+      <c r="M51">
+        <v>30</v>
+      </c>
+      <c r="N51">
+        <v>0.9</v>
+      </c>
+      <c r="O51">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>3077</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K52">
+        <v>0.008523827973653622</v>
+      </c>
+      <c r="L52">
+        <v>44</v>
+      </c>
+      <c r="M52">
+        <v>47</v>
+      </c>
+      <c r="N52">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O52">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>5118</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K53">
+        <v>0.006578947368421052</v>
+      </c>
+      <c r="L53">
+        <v>21</v>
+      </c>
+      <c r="M53">
+        <v>30</v>
+      </c>
+      <c r="N53">
+        <v>0.7</v>
+      </c>
+      <c r="O53">
+        <v>0.3</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54">
+        <v>0.006238447319778189</v>
+      </c>
+      <c r="L54">
+        <v>27</v>
+      </c>
+      <c r="M54">
+        <v>27</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>4301</v>
       </c>
     </row>
   </sheetData>
